--- a/mylessons_backend/import.xlsx
+++ b/mylessons_backend/import.xlsx
@@ -3953,7 +3953,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8917,7 +8917,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10745,7 +10745,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11489,7 +11489,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -12039,7 +12039,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12101,7 +12101,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12225,7 +12225,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12721,7 +12721,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -13777,7 +13777,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -13839,7 +13839,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -14149,7 +14149,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -14521,7 +14521,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>João Dias</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Henrique Dargent</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -14893,7 +14893,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -14955,7 +14955,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -15141,7 +15141,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -15327,7 +15327,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -15389,7 +15389,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -15575,7 +15575,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>João Dias</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -15761,7 +15761,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -15823,7 +15823,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -15885,7 +15885,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -16071,7 +16071,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -16133,7 +16133,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -16195,7 +16195,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -16443,7 +16443,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -16567,7 +16567,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -16691,7 +16691,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -16753,7 +16753,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -16815,7 +16815,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16877,7 +16877,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -16997,7 +16997,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -17059,7 +17059,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -17183,7 +17183,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -17307,7 +17307,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -17369,7 +17369,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -17617,7 +17617,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Felipe Chales</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17865,7 +17865,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Felipe Chales</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17989,7 +17989,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -18051,7 +18051,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -18113,7 +18113,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -18175,7 +18175,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -18237,7 +18237,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -18299,7 +18299,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -18361,7 +18361,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18605,7 +18605,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18667,7 +18667,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -18729,7 +18729,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18791,7 +18791,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18973,7 +18973,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -19155,7 +19155,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -19217,7 +19217,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19399,7 +19399,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19461,7 +19461,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -19523,7 +19523,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19585,7 +19585,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -19647,7 +19647,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19709,7 +19709,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19833,7 +19833,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19895,7 +19895,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19957,7 +19957,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -20019,7 +20019,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -20081,7 +20081,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -20143,7 +20143,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -20205,7 +20205,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20267,7 +20267,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20329,7 +20329,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -20391,7 +20391,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -20453,7 +20453,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20515,7 +20515,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20577,7 +20577,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20639,7 +20639,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20701,7 +20701,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20763,7 +20763,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20825,7 +20825,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20949,7 +20949,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -21073,7 +21073,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -21135,7 +21135,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21197,7 +21197,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21259,7 +21259,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21321,7 +21321,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21445,7 +21445,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21507,7 +21507,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21569,7 +21569,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21693,7 +21693,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21755,7 +21755,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21941,7 +21941,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22003,7 +22003,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22065,7 +22065,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22127,7 +22127,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -22189,7 +22189,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22251,7 +22251,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22313,7 +22313,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -22437,7 +22437,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22561,7 +22561,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22623,7 +22623,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22685,7 +22685,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22809,7 +22809,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22871,7 +22871,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22933,7 +22933,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23057,7 +23057,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23119,7 +23119,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -23181,7 +23181,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23243,7 +23243,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23367,7 +23367,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23429,7 +23429,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Antonio Luz</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23491,7 +23491,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Antonio Luz</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23553,7 +23553,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23615,7 +23615,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23677,7 +23677,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23739,7 +23739,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23801,7 +23801,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -23863,7 +23863,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23925,7 +23925,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23987,7 +23987,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24049,7 +24049,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -24111,7 +24111,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24173,7 +24173,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24235,7 +24235,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24297,7 +24297,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24359,7 +24359,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24483,7 +24483,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24545,7 +24545,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24607,7 +24607,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24731,7 +24731,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24793,7 +24793,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24917,7 +24917,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24979,7 +24979,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25103,7 +25103,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25227,7 +25227,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25273,7 +25273,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25319,7 +25319,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25381,7 +25381,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25443,7 +25443,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25505,7 +25505,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -25567,7 +25567,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25629,7 +25629,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25691,7 +25691,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25753,7 +25753,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25815,7 +25815,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25877,7 +25877,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26031,7 +26031,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26093,7 +26093,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26155,7 +26155,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26217,7 +26217,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26279,7 +26279,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26341,7 +26341,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26465,7 +26465,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26527,7 +26527,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26589,7 +26589,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26651,7 +26651,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26697,7 +26697,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26759,7 +26759,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -26821,7 +26821,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -26883,7 +26883,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -26945,7 +26945,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27007,7 +27007,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27069,7 +27069,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27131,7 +27131,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27193,7 +27193,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27255,7 +27255,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27317,7 +27317,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27379,7 +27379,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27441,7 +27441,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27503,7 +27503,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27549,7 +27549,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27595,7 +27595,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -27641,7 +27641,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -27687,7 +27687,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -27749,7 +27749,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -27811,7 +27811,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -27935,7 +27935,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -27997,7 +27997,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -28059,7 +28059,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -28121,7 +28121,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -28183,7 +28183,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -28245,7 +28245,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -28307,7 +28307,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Antonio Luz</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -28369,7 +28369,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -28493,7 +28493,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -28555,7 +28555,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -28617,7 +28617,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -28741,7 +28741,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -28865,7 +28865,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -28927,7 +28927,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -28989,7 +28989,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -29051,7 +29051,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -29113,7 +29113,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -29159,7 +29159,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -29221,7 +29221,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -29283,7 +29283,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -29345,7 +29345,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -29407,7 +29407,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -29469,7 +29469,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -29531,7 +29531,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -29593,7 +29593,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -29655,7 +29655,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -29717,7 +29717,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -29779,7 +29779,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -29841,7 +29841,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -29903,7 +29903,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -29965,7 +29965,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -30027,7 +30027,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -30089,7 +30089,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -30151,7 +30151,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -30337,7 +30337,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -30461,7 +30461,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -30523,7 +30523,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -30585,7 +30585,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -30647,7 +30647,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -30709,7 +30709,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -30771,7 +30771,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -30833,7 +30833,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -30895,7 +30895,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -30957,7 +30957,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -31003,7 +31003,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -31049,7 +31049,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -31095,7 +31095,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -31157,7 +31157,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -31219,7 +31219,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -31281,7 +31281,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -31343,7 +31343,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -31467,7 +31467,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -31529,7 +31529,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -31591,7 +31591,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -31653,7 +31653,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -31777,7 +31777,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -31839,7 +31839,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -31901,7 +31901,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -31963,7 +31963,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -32025,7 +32025,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -32087,7 +32087,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -32149,7 +32149,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -32211,7 +32211,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -32273,7 +32273,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -32335,7 +32335,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -32397,7 +32397,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -32459,7 +32459,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -32521,7 +32521,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -32583,7 +32583,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -32645,7 +32645,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -32707,7 +32707,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -32769,7 +32769,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -32893,7 +32893,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -32955,7 +32955,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -33017,7 +33017,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -33079,7 +33079,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -33141,7 +33141,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -33203,7 +33203,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -33265,7 +33265,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -33327,7 +33327,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -33389,7 +33389,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -33451,7 +33451,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -33513,7 +33513,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -33575,7 +33575,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -33637,7 +33637,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -33699,7 +33699,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -33761,7 +33761,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -33823,7 +33823,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -33885,7 +33885,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -33947,7 +33947,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -34009,7 +34009,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -34071,7 +34071,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -34133,7 +34133,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -34257,7 +34257,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -34319,7 +34319,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -34381,7 +34381,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -34443,7 +34443,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -34505,7 +34505,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -34567,7 +34567,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -34629,7 +34629,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -34691,7 +34691,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -34753,7 +34753,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -34815,7 +34815,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -34877,7 +34877,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -34939,7 +34939,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -35001,7 +35001,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -35063,7 +35063,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -35109,7 +35109,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -35171,7 +35171,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -35233,7 +35233,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -35295,7 +35295,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -35357,7 +35357,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -35419,7 +35419,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -35481,7 +35481,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -35543,7 +35543,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -35605,7 +35605,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -35667,7 +35667,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -35729,7 +35729,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -35791,7 +35791,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -35853,7 +35853,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -35915,7 +35915,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -35977,7 +35977,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -36039,7 +36039,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -36101,7 +36101,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -36163,7 +36163,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -36225,7 +36225,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -36287,7 +36287,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -36349,7 +36349,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -36411,7 +36411,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -36473,7 +36473,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -36535,7 +36535,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -36597,7 +36597,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -36659,7 +36659,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -36721,7 +36721,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -36767,7 +36767,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -36813,7 +36813,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -36875,7 +36875,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -36937,7 +36937,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -36999,7 +36999,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -37061,7 +37061,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -37123,7 +37123,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -37185,7 +37185,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -37231,7 +37231,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -37277,7 +37277,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -37339,7 +37339,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -37401,7 +37401,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -37463,7 +37463,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -37525,7 +37525,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -37587,7 +37587,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -37649,7 +37649,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -37711,7 +37711,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -37773,7 +37773,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -37835,7 +37835,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -37897,7 +37897,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -37959,7 +37959,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -38021,7 +38021,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -38083,7 +38083,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -38145,7 +38145,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -38191,7 +38191,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -38237,7 +38237,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -38299,7 +38299,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -38361,7 +38361,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -38423,7 +38423,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -38485,7 +38485,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -38547,7 +38547,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -38593,7 +38593,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -38639,7 +38639,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -38685,7 +38685,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -38747,7 +38747,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -38809,7 +38809,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -38871,7 +38871,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -38933,7 +38933,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -39041,7 +39041,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -39133,7 +39133,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -39195,7 +39195,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -39257,7 +39257,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -39319,7 +39319,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -39365,7 +39365,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -39427,7 +39427,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -39489,7 +39489,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -39551,7 +39551,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -39613,7 +39613,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -39675,7 +39675,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -39721,7 +39721,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -39767,7 +39767,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -39813,7 +39813,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -39875,7 +39875,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -39937,7 +39937,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -39999,7 +39999,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -40061,7 +40061,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -40123,7 +40123,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -40185,7 +40185,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -40247,7 +40247,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -40309,7 +40309,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -40355,7 +40355,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -40401,7 +40401,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -40447,7 +40447,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -40493,7 +40493,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -40555,7 +40555,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -40617,7 +40617,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -40679,7 +40679,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -40741,7 +40741,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -40803,7 +40803,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -40865,7 +40865,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -40911,7 +40911,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -40957,7 +40957,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -41019,7 +41019,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -41081,7 +41081,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -41143,7 +41143,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -41205,7 +41205,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -41267,7 +41267,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -41329,7 +41329,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -41391,7 +41391,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -41453,7 +41453,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -41499,7 +41499,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -41545,7 +41545,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -41591,7 +41591,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -41637,7 +41637,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -41699,7 +41699,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -41761,7 +41761,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -41823,7 +41823,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -41885,7 +41885,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -41947,7 +41947,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -41993,7 +41993,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -42039,7 +42039,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -42085,7 +42085,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -42147,7 +42147,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -42193,7 +42193,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -42239,7 +42239,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -42285,7 +42285,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -42347,7 +42347,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -42393,7 +42393,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -42439,7 +42439,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -42485,7 +42485,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -42547,7 +42547,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -42609,7 +42609,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -42671,7 +42671,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -42733,7 +42733,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -42795,7 +42795,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -42887,7 +42887,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -42933,7 +42933,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -42995,7 +42995,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -43041,7 +43041,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -43087,7 +43087,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -43133,7 +43133,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -43195,7 +43195,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -43241,7 +43241,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -43287,7 +43287,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -43333,7 +43333,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -43379,7 +43379,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -43425,7 +43425,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -43471,7 +43471,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -43517,7 +43517,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -43680,7 +43680,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -43758,7 +43758,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -43836,7 +43836,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -43914,7 +43914,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -43992,7 +43992,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -44070,7 +44070,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -44148,7 +44148,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -44226,7 +44226,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -44304,7 +44304,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -44382,7 +44382,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -44464,7 +44464,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -44546,7 +44546,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -44624,7 +44624,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -44702,7 +44702,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -44784,7 +44784,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -44866,7 +44866,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -44948,7 +44948,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -45030,7 +45030,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -45112,7 +45112,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -45194,7 +45194,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -45276,7 +45276,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -45358,7 +45358,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -45440,7 +45440,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -45522,7 +45522,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -45604,7 +45604,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -45686,7 +45686,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -45768,7 +45768,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Matheus Santos</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -45850,7 +45850,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -45932,7 +45932,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -46014,7 +46014,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -46096,7 +46096,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -46178,7 +46178,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -46260,7 +46260,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -46338,7 +46338,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -46416,7 +46416,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>João Dias</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -46494,7 +46494,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Henrique Dargent</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -46576,7 +46576,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -46658,7 +46658,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -46740,7 +46740,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -46822,7 +46822,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -46904,7 +46904,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -46986,7 +46986,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Felipe Chales</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -47068,7 +47068,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>João Dias</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -47150,7 +47150,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -47232,7 +47232,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -47314,7 +47314,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Filippo Bonaccorso</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -47396,7 +47396,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -47478,7 +47478,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -47560,7 +47560,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -47642,7 +47642,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -47724,7 +47724,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -47806,7 +47806,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -47888,7 +47888,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -47970,7 +47970,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -48052,7 +48052,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -48134,7 +48134,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -48216,7 +48216,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -48298,7 +48298,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -48380,7 +48380,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -48462,7 +48462,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -48544,7 +48544,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -48626,7 +48626,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -48708,7 +48708,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -48790,7 +48790,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -48872,7 +48872,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -48954,7 +48954,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -49036,7 +49036,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -49118,7 +49118,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -49200,7 +49200,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -49282,7 +49282,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -49364,7 +49364,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -49446,7 +49446,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -49528,7 +49528,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -49610,7 +49610,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -49692,7 +49692,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -49774,7 +49774,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -49856,7 +49856,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Antonio Luz</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -49938,7 +49938,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -50020,7 +50020,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -50102,7 +50102,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -50184,7 +50184,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -50266,7 +50266,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -50348,7 +50348,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -50430,7 +50430,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -50512,7 +50512,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -50594,7 +50594,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -50672,7 +50672,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -50754,7 +50754,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -50832,7 +50832,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -50914,7 +50914,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -50992,7 +50992,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -51074,7 +51074,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -51156,7 +51156,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -51238,7 +51238,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -51316,7 +51316,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Matheus freitas</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -51398,7 +51398,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -51480,7 +51480,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -51562,7 +51562,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -51640,7 +51640,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -51722,7 +51722,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -51804,7 +51804,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -51886,7 +51886,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -51968,7 +51968,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -52050,7 +52050,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -52128,7 +52128,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -52210,7 +52210,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -52292,7 +52292,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -52374,7 +52374,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -52456,7 +52456,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -52538,7 +52538,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -52620,7 +52620,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -52702,7 +52702,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -52784,7 +52784,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -52866,7 +52866,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -52948,7 +52948,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -53030,7 +53030,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -53112,7 +53112,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -53190,7 +53190,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -53272,7 +53272,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -53354,7 +53354,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -53436,7 +53436,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -53518,7 +53518,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -53596,7 +53596,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -53674,7 +53674,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -53756,7 +53756,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -53838,7 +53838,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -53920,7 +53920,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -53998,7 +53998,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -54076,7 +54076,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -54154,7 +54154,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -54232,7 +54232,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -54310,7 +54310,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -54392,7 +54392,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -54470,7 +54470,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -54552,7 +54552,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -54630,7 +54630,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -54712,7 +54712,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -54790,7 +54790,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -54868,7 +54868,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -54946,7 +54946,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -55024,7 +55024,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -55106,7 +55106,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -55184,7 +55184,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -55262,7 +55262,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Francisco Sousa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
